--- a/PostgreSQL/data/xlsx/OdbYP3-2024_Divisions.xlsx
+++ b/PostgreSQL/data/xlsx/OdbYP3-2024_Divisions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlebu\YandexDisk\NikoirDevelopment\YP3-2024\PostgreSQL\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlebu\YandexDisk\NikoirDevelopment\YP3-2024\PostgreSQL\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A8BBF-AD19-4C98-9439-A246CB7FCC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB5F12-4655-4E34-9DB4-F1956B40B53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="16629" xr2:uid="{E82854C7-5098-4230-963A-5CAD9B2F4516}"/>
+    <workbookView xWindow="3651" yWindow="3489" windowWidth="20572" windowHeight="11991" xr2:uid="{E82854C7-5098-4230-963A-5CAD9B2F4516}"/>
   </bookViews>
   <sheets>
     <sheet name="Divisions" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Академия Умные дороги</t>
   </si>
   <si>
-    <t>Аппарат управления</t>
-  </si>
-  <si>
     <t>Департамент коммуникаций</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>OrganizationID</t>
-  </si>
-  <si>
-    <t>DivisionsID</t>
   </si>
   <si>
     <t>Договорной отдел</t>
@@ -187,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,10 +205,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -235,21 +229,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -262,51 +241,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -373,42 +309,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -469,7 +393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -575,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -717,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,435 +649,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FD7800-35B2-4CB8-BCF9-221FC53547D8}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C65"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="5">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="5">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9">
-        <v>4</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9">
-        <v>5</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9">
-        <v>5</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9">
-        <v>5</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9">
-        <v>11</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9">
-        <v>11</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9">
-        <v>11</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9">
-        <v>11</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9">
-        <v>11</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9">
-        <v>12</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="10">
-        <v>12</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
